--- a/data/lg_stock_price.xlsx
+++ b/data/lg_stock_price.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhkan\Desktop\Notebooks\FXrate\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhkan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4763779F-CC80-475C-A8E7-96B259CE30F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C28A8CD-5D7E-4FF0-A6EB-B98F13E7BDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1710" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9060" yWindow="3495" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lg" sheetId="3" r:id="rId1"/>
@@ -16328,7 +16328,8 @@
     <t>2023-06-09</t>
   </si>
   <si>
-    <t>주가</t>
+    <t>stock_price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LG_Electronics</t>
@@ -16432,7 +16433,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="symbol"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="entity_name"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="주가"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="stock_price"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -16725,8 +16726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D5227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A5195" workbookViewId="0">
+      <selection activeCell="B5201" sqref="B5201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
